--- a/data/excel/data_model.xlsx
+++ b/data/excel/data_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericblobb/Documents/dev/hacktj/first-aid/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericblobb/Documents/dev/hacktj/first-aid/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -380,1948 +380,1948 @@
     <t>oxid|coenzym|like|nadh|lead|product|atp|oxid|phosphoryl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=3Iu1Z0h1i1Y</t>
+    <t>http://youtube.com/watch?v=D6mRPgvAEOc</t>
   </si>
   <si>
     <t>alcohol|ethanol|ferment|includ|yeast|role|bread|wine|product</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=D6mRPgvAEOc</t>
+    <t>http://youtube.com/watch?v=axG9HuqViDY</t>
   </si>
   <si>
     <t>second|law|thermodynam|entropi|entropi|univers|constantli|increas</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=axG9HuqViDY</t>
+    <t>http://youtube.com/watch?v=Vc8mmZTrNtI</t>
   </si>
   <si>
     <t>second|law|thermodynam|spontan|transfer|heat|cold|hot</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Vc8mmZTrNtI</t>
+    <t>http://youtube.com/watch?v=vny1qUaToHw</t>
   </si>
   <si>
     <t>energi|creat|destroy|transfer|convert|form</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=vny1qUaToHw</t>
+    <t>http://youtube.com/watch?v=afWnU10ZNfg</t>
   </si>
   <si>
     <t>hypoton|isoton|hyperton|solut|tonic|see|effect|type|solut|direct|osmosi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=afWnU10ZNfg</t>
+    <t>http://youtube.com/watch?v=cP8iQu57dQo</t>
   </si>
   <si>
     <t>fluid|mosaic|model|cell|membran|role|phospholipid|protein|glycoprotein|cholesterol|glycolipid</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=cP8iQu57dQo</t>
+    <t>http://youtube.com/watch?v=zdvKhaQxvag</t>
   </si>
   <si>
     <t>understand|structur|plant|cell|wall</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=zdvKhaQxvag</t>
+    <t>http://youtube.com/watch?v=cMNx17H3dRU</t>
   </si>
   <si>
     <t>overview|cell|interact|extracellular|matrix</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=cMNx17H3dRU</t>
+    <t>http://youtube.com/watch?v=uIojjqSm0m4</t>
   </si>
   <si>
     <t>overview|video|physic|delv|deeper|futur|video</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=uIojjqSm0m4</t>
+    <t>http://youtube.com/watch?v=4BAGI6LbHeo</t>
   </si>
   <si>
     <t>explor|cell|cytoskeleton|includ|microfila|microtubul|brief|mention|intermedi|filament</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=4BAGI6LbHeo</t>
+    <t>http://youtube.com/watch?v=i1dAnpSFbyI</t>
   </si>
   <si>
     <t>structur|role|mitochondria|plural|mitochondrion|outer|membran|inner|membran|crista|porin</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=i1dAnpSFbyI</t>
+    <t>http://youtube.com/watch?v=hDP6egLrsdM</t>
   </si>
   <si>
     <t>intuit|formula|thermal|conduct</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=hDP6egLrsdM</t>
+    <t>http://youtube.com/watch?v=8GQvMt-ow4w</t>
   </si>
   <si>
     <t>fire|thermal|conduct|convect|radiat</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8GQvMt-ow4w</t>
+    <t>http://youtube.com/watch?v=xQ9D4Jz95-A</t>
   </si>
   <si>
     <t>maxwellboltzmann|distribut|visual|distribut|speed|particl|differ|temperatur</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=xQ9D4Jz95-A</t>
+    <t>http://youtube.com/watch?v=xTnNv7YplSo</t>
   </si>
   <si>
     <t>prokaryot|eukaryot|cell|bacteria|archaea</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=xTnNv7YplSo</t>
+    <t>http://youtube.com/watch?v=6xx5v3PKZZM</t>
   </si>
   <si>
     <t>think|limit|factor|cell|size|focu|volum|surfac|area|ratio</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=6xx5v3PKZZM</t>
+    <t>http://youtube.com/watch?v=zk3vlhz1b6k</t>
   </si>
   <si>
     <t>introduct|cell|theori|role|hook|leeuwenhoek|develop</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=zk3vlhz1b6k</t>
+    <t>http://youtube.com/watch?v=MODnIkQvyz0</t>
   </si>
   <si>
     <t>primari|secondari|tertiari|quaternari|protein|structur|beta|pleat|sheet|alpha|helic</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=MODnIkQvyz0</t>
+    <t>http://youtube.com/watch?v=_RTF0DAHBBM</t>
   </si>
   <si>
     <t>surfac|tension|water|surfac|tension|relat|hydrogen|bond</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=_RTF0DAHBBM</t>
+    <t>http://youtube.com/watch?v=TStjgUmL1RQ</t>
   </si>
   <si>
     <t>reactant|product|revers|irrevers|chemic|reaction</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=TStjgUmL1RQ</t>
+    <t>http://youtube.com/watch?v=f4MYCepzLyQ</t>
   </si>
   <si>
     <t>s|averag|rate|chang|function|interv</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8QihetGj3pg</t>
+    <t>http://youtube.com/watch?v=8bK-xfh8-rY</t>
   </si>
   <si>
     <t>predict|number|time|spinner|land|eleph</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=f4MYCepzLyQ</t>
+    <t>http://youtube.com/watch?v=y-1Gh4ewklY</t>
   </si>
   <si>
     <t>introduct|mortgag|loan</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8bK-xfh8-rY</t>
+    <t>http://youtube.com/watch?v=2GQTfpDE9DQ</t>
   </si>
   <si>
     <t>sal|explain|fundament|forc|caus|charg|particl|attract|repel</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=y-1Gh4ewklY</t>
+    <t>http://youtube.com/watch?v=6gUY5NoX1Lk</t>
   </si>
   <si>
     <t>dna|copi|replic|inform|dna|protein</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=2GQTfpDE9DQ</t>
+    <t>http://youtube.com/watch?v=IYFkXWlgC_w</t>
   </si>
   <si>
     <t>assum|quantiti|grow|proport|size|result|gener|equat|dydxki|solv|separ|variabl|result|gener|exponenti|function|yceáµË£</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=6gUY5NoX1Lk</t>
+    <t>http://youtube.com/watch?v=6o7b9yyhH7k</t>
   </si>
   <si>
     <t>differenti|equat|equat|relat|function|deriv|mean|solut|function|learn|video</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=IYFkXWlgC_w</t>
+    <t>http://youtube.com/watch?v=tKDET9t8VTI</t>
   </si>
   <si>
     <t>sal|explain|diseas|al|amyotroph|later|sclerosi|take|ice|bucket|challeng</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=6o7b9yyhH7k</t>
+    <t>http://youtube.com/watch?v=wh0OS4MrN3E</t>
   </si>
   <si>
     <t>sal|talk|stanford|professor|carol|dweck|research|growth|mindset|join|learn|movement|wwwkhanacademyorgyoucanlearnanyth</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=tKDET9t8VTI</t>
+    <t>http://youtube.com/watch?v=JC82Il2cjqA</t>
   </si>
   <si>
     <t>khan|academi|mission|unlock|world|potenti|peopl|think|intellig|fix|scienc|say|â€™s|start|know|learn|join|movement|httpkhanacademyorgyoucanlearnanyth</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=wh0OS4MrN3E</t>
+    <t>http://youtube.com/watch?v=iPwrDWQ7hPc</t>
   </si>
   <si>
     <t>sal|explain|s|binomi|theorem|use|use</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=JC82Il2cjqA</t>
+    <t>http://youtube.com/watch?v=e23FYcmAG5k</t>
   </si>
   <si>
     <t>video|sal|aspen|institut|presid|ceo|walter|isaacson|present|overview|benjamin|franklin|life</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=z-Qi4w6Xkuc</t>
+    <t>http://youtube.com/watch?v=m0SFJt_0v28</t>
   </si>
   <si>
     <t>identifi|anod|cathod|galvan|cell|calcul|voltag|standard|electrod|potenti</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=iPwrDWQ7hPc</t>
+    <t>http://youtube.com/watch?v=9Xncz_mMc5g</t>
   </si>
   <si>
     <t>use|redox|reaction|construct|galvanicvolta|cell|produc|flow|current|show|flow|electron|ion|explain|role|salt|bridg</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=e23FYcmAG5k</t>
+    <t>http://youtube.com/watch?v=6UqtgH_Zy1Y</t>
   </si>
   <si>
     <t>structur|endoplasm|reticulum|golgi|bodi|golgi|apparatu|role|protein|secret</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=m0SFJt_0v28</t>
+    <t>http://youtube.com/watch?v=_NB5-Z0pOyc</t>
   </si>
   <si>
     <t>video|aspen|institut|presid|ceo|walter|isaacson|\xa0|talk|sal|\xa0|declar|independ</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=9Xncz_mMc5g</t>
+    <t>http://youtube.com/watch?v=Qh-M3_L4xYk</t>
   </si>
   <si>
     <t>mean|buy|bond</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=6UqtgH_Zy1Y</t>
+    <t>http://youtube.com/watch?v=RuPMsK0mQC8</t>
   </si>
   <si>
     <t>differ|apr|effect|apr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=_NB5-Z0pOyc</t>
+    <t>http://youtube.com/watch?v=6Qr99-l1Oos</t>
   </si>
   <si>
     <t>pulitz|prize|win|author|thoma|friedman|share|thought|discuss|sal</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Qh-M3_L4xYk</t>
+    <t>http://youtube.com/watch?v=kvGsIo1TmsM</t>
   </si>
   <si>
     <t>function|assign|singl|uniqu|output|input|video|exampl|kind|function</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=RuPMsK0mQC8</t>
+    <t>http://youtube.com/watch?v=IyoUWRAharQ</t>
   </si>
   <si>
     <t>austriahungari|ottoman|empir|british|german|french|russian|empir</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=pr-u4LCFYEY</t>
+    <t>http://youtube.com/watch?v=C7ducZoLKgw</t>
   </si>
   <si>
     <t>fundament|theorem|calculu|show|sens|integr|opposit|differenti</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=6Qr99-l1Oos</t>
+    <t>http://youtube.com/watch?v=CXCtqBlEZ7g</t>
   </si>
   <si>
     <t>moment|ve|wait|\xa0|connect|idea|riemann|sum|integr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=kvGsIo1TmsM</t>
+    <t>http://youtube.com/watch?v=h8EYEJ32oQ8</t>
   </si>
   <si>
     <t>sal|introduc|statist|explain|differ|way|describ|center|data|set</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=vDwzmJpI4io</t>
+    <t>http://youtube.com/watch?v=TLSYwkWCIzA</t>
   </si>
   <si>
     <t>corpor|set|tax|haven|use|transfer|price</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=xFBK9534NI8</t>
+    <t>http://youtube.com/watch?v=-fCVxTTAtFQ</t>
   </si>
   <si>
     <t>3|30|second|left|better|hard|3|easi|2|tri|possess|simul|httpwwwkhanacademyorgcsbasketballdecisions1024155511</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=IyoUWRAharQ</t>
+    <t>http://youtube.com/watch?v=8JYP_wU1JTU</t>
   </si>
   <si>
     <t>basic|introduct|microeconom|macroeconom|studi|bit|adam|smith</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=LiPQuOFVHl4</t>
+    <t>http://youtube.com/watch?v=Xp6V_lO1ZKA</t>
   </si>
   <si>
     <t>present|analysi|famou|thought|experi|monti|hall|problem|fun</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=C7ducZoLKgw</t>
+    <t>http://youtube.com/watch?v=E2MRMdaPKcc</t>
   </si>
   <si>
     <t>start|appli|stoke|theorem|solv|line|integr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=CXCtqBlEZ7g</t>
+    <t>http://youtube.com/watch?v=Pn24jP0YbTI</t>
   </si>
   <si>
     <t>salman|khan|give|commenc|address|mit|2012</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=h8EYEJ32oQ8</t>
+    <t>http://youtube.com/watch?v=O_Oozju3RRI</t>
   </si>
   <si>
     <t>introduct|margin|propens|consum|multipli</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=TLSYwkWCIzA</t>
+    <t>http://youtube.com/watch?v=8CluknrLeys</t>
   </si>
   <si>
     <t>independ|realiz|ancestor|perspect</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=-fCVxTTAtFQ</t>
+    <t>http://youtube.com/watch?v=Kf9KjCKmDcU</t>
   </si>
   <si>
     <t>cryptographi|stori|take|caesar|claud|shannon</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8JYP_wU1JTU</t>
+    <t>http://youtube.com/watch?v=hPkh8kOldU4</t>
   </si>
   <si>
     <t>contrast|keynesian|classic|think</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Xp6V_lO1ZKA</t>
+    <t>http://youtube.com/watch?v=ntxMOKXHlfo</t>
   </si>
   <si>
     <t>basic|mechan|monetari|fiscal|polici</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=E2MRMdaPKcc</t>
+    <t>http://youtube.com/watch?v=oLhohwfwf_U</t>
   </si>
   <si>
     <t>understand|aggreg|demand|differ|demand|specif|good|servic| |justif|aggreg|demand|curv|downward|slope</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Pn24jP0YbTI</t>
+    <t>http://youtube.com/watch?v=TXrOpjG4dUs</t>
   </si>
   <si>
     <t>busi|cycl|driven|emot</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=O_Oozju3RRI</t>
+    <t>http://youtube.com/watch?v=vItRHYu-A88</t>
   </si>
   <si>
     <t>exampl|show|factor|affect|interest|rate</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8CluknrLeys</t>
+    <t>http://youtube.com/watch?v=EKvHQc3QEow</t>
   </si>
   <si>
     <t>studi|differenti|calculu</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Kf9KjCKmDcU</t>
+    <t>http://youtube.com/watch?v=AaR1mPrdbTc</t>
   </si>
   <si>
     <t>basic|price|inflat|cpi|consum|price|index</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=hPkh8kOldU4</t>
+    <t>http://youtube.com/watch?v=_LDR1_Prveo</t>
   </si>
   <si>
     <t>word|algebra|underli|idea|come</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ntxMOKXHlfo</t>
+    <t>http://youtube.com/watch?v=Hfz1bwK5C4o</t>
   </si>
   <si>
     <t>understand|flow|resourc|simplest|possibl|economi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=oLhohwfwf_U</t>
+    <t>http://youtube.com/watch?v=UkXI-zPcDIM</t>
   </si>
   <si>
     <t>notsoloy|crimin|want|snitch</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=TXrOpjG4dUs</t>
+    <t>http://youtube.com/watch?v=PEMkfgrifDw</t>
   </si>
   <si>
     <t>equilibrium|price|quantiti|suppli|demand</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=vItRHYu-A88</t>
+    <t>http://youtube.com/watch?v=r1ywppAJ1xs</t>
   </si>
   <si>
     <t>thoma|malthuss|view|popul|malthusian|limit</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=EKvHQc3QEow</t>
+    <t>http://youtube.com/watch?v=CiKrFcgVSIU</t>
   </si>
   <si>
     <t>sal|ask|predict|year|2060</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=AaR1mPrdbTc</t>
+    <t>http://youtube.com/watch?v=vZOk8NnjILg</t>
   </si>
   <si>
     <t>direct|forc|case|circular|motion|constant|speed</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=_LDR1_Prveo</t>
+    <t>http://youtube.com/watch?v=za0QJRZ-yQ4</t>
   </si>
   <si>
     <t>sal|find|domain|rang|fx3x26x2</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Hfz1bwK5C4o</t>
+    <t>http://youtube.com/watch?v=oHvLlS_Sc54</t>
   </si>
   <si>
     <t>scienc|taxonomi|human|fit|tree|life</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=UkXI-zPcDIM</t>
+    <t>http://youtube.com/watch?v=VpLKdKkpg68</t>
   </si>
   <si>
     <t>sal|talk|professor|laurenc|baker|stanford|medic|school</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=PEMkfgrifDw</t>
+    <t>http://youtube.com/watch?v=6YU9HVS2GT0</t>
   </si>
   <si>
     <t>discuss|health|care|cost</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=r1ywppAJ1xs</t>
+    <t>http://youtube.com/watch?v=GZ6I3T1RAnQ</t>
   </si>
   <si>
     <t>dr|david|agu|talk|inflamm|sal|repeatedli|misspel|m</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=CiKrFcgVSIU</t>
+    <t>http://youtube.com/watch?v=LMHxxvbzFqc</t>
   </si>
   <si>
     <t>differ|role|healthcar|system</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=vZOk8NnjILg</t>
+    <t>http://youtube.com/watch?v=4J-dRA3MGc8</t>
   </si>
   <si>
     <t>basic|doctor|paid</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=za0QJRZ-yQ4</t>
+    <t>http://youtube.com/watch?v=f_Z1zsR9lFM</t>
   </si>
   <si>
     <t>basic|overview|hormon|endocrin|system</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=oHvLlS_Sc54</t>
+    <t>http://youtube.com/watch?v=8In5PK1yUAA</t>
   </si>
   <si>
     <t>mechan|carri|trade</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=VpLKdKkpg68</t>
+    <t>http://youtube.com/watch?v=ROpbdO-gRUo</t>
   </si>
   <si>
     <t>understand|correl|impli|causal|press|research|impli</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=6YU9HVS2GT0</t>
+    <t>http://youtube.com/watch?v=wblW_M_HVQ8</t>
   </si>
   <si>
     <t>prove|express|sum|posit|integ|includ|n|induct</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=GZ6I3T1RAnQ</t>
+    <t>http://youtube.com/watch?v=rLNM8zI4Q_M</t>
   </si>
   <si>
     <t>light|electromagnet|radiat|spectrum|wave|particlelik|behavior|calcul|wavelength|frequenc|light|wave</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=LMHxxvbzFqc</t>
+    <t>http://youtube.com/watch?v=ZA_D4O6l1lo</t>
   </si>
   <si>
     <t>think|coeffici|static|kinet|friction</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=4J-dRA3MGc8</t>
+    <t>http://youtube.com/watch?v=TC23wD34C7k</t>
   </si>
   <si>
     <t>figur|compon|forc|graviti|parallel|perpendicular|surfac|inclin|plane</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=f_Z1zsR9lFM</t>
+    <t>http://youtube.com/watch?v=DNoDJlB0ygU</t>
   </si>
   <si>
     <t>correct|total|final|veloc|projectil|video</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8In5PK1yUAA</t>
+    <t>http://youtube.com/watch?v=sTp4cI9VyCU</t>
   </si>
   <si>
     <t>calcul|total|final|veloc|projectil|land|differ|altitud|mistak|near|end|write|2903|2603|ms|final|total|magnitud|2655|ms|787|degre|horizont</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ROpbdO-gRUo</t>
+    <t>http://youtube.com/watch?v=_NWc3C3cTNA</t>
   </si>
   <si>
     <t>way|determin|time|air|given|initi|vertic|veloc</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=wblW_M_HVQ8</t>
+    <t>http://youtube.com/watch?v=xp6ibuI8UuQ</t>
   </si>
   <si>
     <t>visual|ad|break|vector|2|dimens</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=rLNM8zI4Q_M</t>
+    <t>http://youtube.com/watch?v=By-ggTfeuJU</t>
   </si>
   <si>
     <t>action|equal|opposit|reaction</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ZA_D4O6l1lo</t>
+    <t>http://youtube.com/watch?v=ou9YMWlJgkE</t>
   </si>
   <si>
     <t>newton|second|law|motion|f| |ma|forc|equal|mass|time|acceler|learn|use|formula|calcul|acceler</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=TC23wD34C7k</t>
+    <t>http://youtube.com/watch?v=CQYELiTtUs8</t>
   </si>
   <si>
     <t>newton|law|galileo|law|inertia</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=DNoDJlB0ygU</t>
+    <t>http://youtube.com/watch?v=fQt69_Q2CTw</t>
   </si>
   <si>
     <t>long|runway|a380|need</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=sTp4cI9VyCU</t>
+    <t>http://youtube.com/watch?v=MAS6mBRZZXA</t>
   </si>
   <si>
     <t>calcul|averag|veloc|acceler|constant</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=_NWc3C3cTNA</t>
+    <t>http://youtube.com/watch?v=d-_eqgj5-K8</t>
   </si>
   <si>
     <t>understand|distanc|area|velocitytim|line</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=xp6ibuI8UuQ</t>
+    <t>http://youtube.com/watch?v=p4DTormtEG0</t>
   </si>
   <si>
     <t>figur|long|take|a380|given|constant|acceler</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=By-ggTfeuJU</t>
+    <t>http://youtube.com/watch?v=FOkQszg1-j8</t>
   </si>
   <si>
     <t>calcul|acceler|porsch</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ou9YMWlJgkE</t>
+    <t>http://youtube.com/watch?v=Xcel427Ezl0</t>
   </si>
   <si>
     <t>basic|graviti|law|univers|gravit</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=CQYELiTtUs8</t>
+    <t>http://youtube.com/watch?v=lQ-dvt3V4yQ</t>
   </si>
   <si>
     <t>work|exampl|calcul|displac|time|veloc</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=fQt69_Q2CTw</t>
+    <t>http://youtube.com/watch?v=awzOvyMKeMA</t>
   </si>
   <si>
     <t>simpl|exampl|solv|time|given|distanc|rate</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=MAS6mBRZZXA</t>
+    <t>http://youtube.com/watch?v=oRKxmXwLvUU</t>
   </si>
   <si>
     <t>exampl|calcul|speed|veloc</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=d-_eqgj5-K8</t>
+    <t>http://youtube.com/watch?v=ihNZlp7iUHE</t>
   </si>
   <si>
     <t>distanc|displac|speed|veloc|differ|vector|scalar</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=p4DTormtEG0</t>
+    <t>http://youtube.com/watch?v=733mgqrzNKs</t>
   </si>
   <si>
     <t>money|matter|money|present|futur|valu|discuss</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=FOkQszg1-j8</t>
+    <t>http://youtube.com/watch?v=riXcZT2ICjA</t>
   </si>
   <si>
     <t>limit|tell|valu|function|approach|function|â€™s|input|closer|closer|number|idea|limit|basi|calculu</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Xcel427Ezl0</t>
+    <t>http://youtube.com/watch?v=epgwuzzDHsQ</t>
   </si>
   <si>
     <t>taylor| |maclaurin|polynomi|clever|way|approxim|function|polynomi|learn|polynomi|work</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=lQ-dvt3V4yQ</t>
+    <t>http://youtube.com/watch?v=mIStB5X4U8M</t>
   </si>
   <si>
     <t>prime|number|number|divis|1|learn|properti|exampl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=awzOvyMKeMA</t>
+    <t>http://youtube.com/watch?v=MmRgMAZyYN0</t>
   </si>
   <si>
     <t>overview|commun|marxistleninist|state</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=oRKxmXwLvUU</t>
+    <t>http://youtube.com/watch?v=Qb7tbWuDc2U</t>
   </si>
   <si>
     <t>overview|hedg|fund|differ|mutual|fund</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ihNZlp7iUHE</t>
+    <t>http://youtube.com/watch?v=3858MaULDdI</t>
   </si>
   <si>
     <t>clarifi|bunch|medic|term|heart|diseas</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=733mgqrzNKs</t>
+    <t>http://youtube.com/watch?v=rPLjSY00JlE</t>
   </si>
   <si>
     <t>basic|type|type|ii|diabet</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=riXcZT2ICjA</t>
+    <t>http://youtube.com/watch?v=oFGkYA_diDA</t>
   </si>
   <si>
     <t>ape|clarif| |tail</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=epgwuzzDHsQ</t>
+    <t>http://youtube.com/watch?v=gM95HHI4gLk</t>
   </si>
   <si>
     <t>salman|khan|talk|ted|2011|tedcom</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=mIStB5X4U8M</t>
+    <t>http://youtube.com/watch?v=NhioAAdYDJM</t>
   </si>
   <si>
     <t>swave|pwave</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=MmRgMAZyYN0</t>
+    <t>http://youtube.com/watch?v=b7JTVLc_aMk</t>
   </si>
   <si>
     <t>shortcut|have|evalu|cross|product|vector</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Qb7tbWuDc2U</t>
+    <t>http://youtube.com/watch?v=y55tzg_jW9I</t>
   </si>
   <si>
     <t>refract|snell|law</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=3858MaULDdI</t>
+    <t>http://youtube.com/watch?v=Xg8_iSkJpAE</t>
   </si>
   <si>
     <t>analysi|varianc|3|hypothesi|test|fstatist</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=rPLjSY00JlE</t>
+    <t>http://youtube.com/watch?v=2QeDRsxSF9M</t>
   </si>
   <si>
     <t>sal|use|chi|squar|test|hypothesi|owner|distribut|correct</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=oFGkYA_diDA</t>
+    <t>http://youtube.com/watch?v=-FtlH4svqx4</t>
   </si>
   <si>
     <t>sal|walk|exampl|neurologist|test|effect|drug|discuss|hypothesi|test|pvalu</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=gM95HHI4gLk</t>
+    <t>http://youtube.com/watch?v=0ZstEh_8bYc</t>
   </si>
   <si>
     <t>figur|probabl|run|water|camp|trip</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=NhioAAdYDJM</t>
+    <t>http://youtube.com/watch?v=3XiHrsZNZko</t>
   </si>
   <si>
     <t>introduct|mechan|aldol|reaction</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=b7JTVLc_aMk</t>
+    <t>http://youtube.com/watch?v=UuMTSU9DcqQ</t>
   </si>
   <si>
     <t>bill|gate|talk|khan|academi|gate|note</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=y55tzg_jW9I</t>
+    <t>http://youtube.com/watch?v=SRPQ62dR6b4</t>
   </si>
   <si>
     <t>carboxyl|acid|deriv| |amid|anhydrid|ester|acyl|chlorid</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Xg8_iSkJpAE</t>
+    <t>http://youtube.com/watch?v=z8h7QgevqjM</t>
   </si>
   <si>
     <t>carboxyl|acid|name</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=2QeDRsxSF9M</t>
+    <t>http://youtube.com/watch?v=xheOq0XZ-so</t>
   </si>
   <si>
     <t>carboxyl|acid|introduct</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=-FtlH4svqx4</t>
+    <t>http://youtube.com/watch?v=-QpkmwIoMaY</t>
   </si>
   <si>
     <t>vapor|pressur|exampl|ideal|ga|law</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=0ZstEh_8bYc</t>
+    <t>http://youtube.com/watch?v=8bCL8TQZFKo</t>
   </si>
   <si>
     <t>hesss|law|exampl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=3XiHrsZNZko</t>
+    <t>http://youtube.com/watch?v=qbCZbP6_j48</t>
   </si>
   <si>
     <t>spectrophotometri|transmitt|absorb|beerlambert|law</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=UuMTSU9DcqQ</t>
+    <t>http://youtube.com/watch?v=Kpov3GS6tjM</t>
   </si>
   <si>
     <t>amin|name|introduct</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=SRPQ62dR6b4</t>
+    <t>http://youtube.com/watch?v=A5r7wkwDID4</t>
   </si>
   <si>
     <t>name|benzen|deriv|introduct</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=z8h7QgevqjM</t>
+    <t>http://youtube.com/watch?v=6XOm3Km7r30</t>
   </si>
   <si>
     <t>reson|benzen|carbon|ion</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=xheOq0XZ-so</t>
+    <t>http://youtube.com/watch?v=5HgzsltWwK8</t>
   </si>
   <si>
     <t>free|radic|reaction</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=-QpkmwIoMaY</t>
+    <t>http://youtube.com/watch?v=MtwvLru62Qw</t>
   </si>
   <si>
     <t>e2|e1|sn2|sn1|reaction|exampl|3</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8bCL8TQZFKo</t>
+    <t>http://youtube.com/watch?v=vinEPfrqfiU</t>
   </si>
   <si>
     <t>e2|e1|sn2|sn1|reaction|exampl|2</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=qbCZbP6_j48</t>
+    <t>http://youtube.com/watch?v=12Rvts2NR7M</t>
   </si>
   <si>
     <t>compar|e2|e1|sn2|sn1|reaction</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Kpov3GS6tjM</t>
+    <t>http://youtube.com/watch?v=Z_GWBW_GVGA</t>
   </si>
   <si>
     <t>introduct|reaction|mechan|  |addit|reaction|alken</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=A5r7wkwDID4</t>
+    <t>http://youtube.com/watch?v=tR-hzV5Tkxo</t>
   </si>
   <si>
     <t>polymer|alken|acid</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=6XOm3Km7r30</t>
+    <t>http://youtube.com/watch?v=AA6RfgP-AHU</t>
   </si>
   <si>
     <t>sal|introduc|famou|super|import|pythagorean|theorem</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=5HgzsltWwK8</t>
+    <t>http://youtube.com/watch?v=XtAB9GOfLiM</t>
   </si>
   <si>
     <t>time|think|hangtim|farflung|projectil</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=MtwvLru62Qw</t>
+    <t>http://youtube.com/watch?v=FnrqBgot3jM</t>
   </si>
   <si>
     <t>sal|graph|inequ|y3x5</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=vinEPfrqfiU</t>
+    <t>http://youtube.com/watch?v=457xnJv80O0</t>
   </si>
   <si>
     <t>stereoisom|enantiom|diastereom|constitut|isom|meso|compound</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=12Rvts2NR7M</t>
+    <t>http://youtube.com/watch?v=tk-SNvCPLCE</t>
   </si>
   <si>
     <t>introduct|chiral|handed|chiral|relat|group|bond|central|carbon</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Z_GWBW_GVGA</t>
+    <t>http://youtube.com/watch?v=YUEkOBvJSNg</t>
   </si>
   <si>
     <t>chair|boat|shape|cyclohexan</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=tR-hzV5Tkxo</t>
+    <t>http://youtube.com/watch?v=IkmM4CPnqF0</t>
   </si>
   <si>
     <t>newman|project</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=AA6RfgP-AHU</t>
+    <t>http://youtube.com/watch?v=u1eGSL6J6Fo</t>
   </si>
   <si>
     <t>sp3|hybrid|orbit|sigma|bond</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=XtAB9GOfLiM</t>
+    <t>http://youtube.com/watch?v=ccrYD6iX_SY</t>
   </si>
   <si>
     <t>probabl|get|set|card</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=FnrqBgot3jM</t>
+    <t>http://youtube.com/watch?v=l9ft9jpriNA</t>
   </si>
   <si>
     <t>think|differ|way|pick|offic|order|find|probabl|situat|particular</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=457xnJv80O0</t>
+    <t>http://youtube.com/watch?v=oQpKtm5TtxU</t>
   </si>
   <si>
     <t>think|way|pick|color|group|6</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=tk-SNvCPLCE</t>
+    <t>http://youtube.com/watch?v=VWAfEbgf1Po</t>
   </si>
   <si>
     <t>taken|test|discov|choic|guess|coupl|problem|exampl|problem|consid|probabl|independ|event|occur</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=YUEkOBvJSNg</t>
+    <t>http://youtube.com/watch?v=VMEV__2wW3E</t>
   </si>
   <si>
     <t>sal|analyz|solut|mathemat|problem|determin|use|deduct|reason</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=IkmM4CPnqF0</t>
+    <t>http://youtube.com/watch?v=GEId0GonOZM</t>
   </si>
   <si>
     <t>sal|discuss|differ|induct|deduct|reason|consid|word|problem</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=u1eGSL6J6Fo</t>
+    <t>http://youtube.com/watch?v=RdYA8ZpqdJE</t>
   </si>
   <si>
     <t>sal|solv|equat|52x43x718|find|lcm|common|multipl|2x|3x</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ccrYD6iX_SY</t>
+    <t>http://youtube.com/watch?v=dfoXtodyiIA</t>
   </si>
   <si>
     <t>sal|rewrit|quadrat|equat|vertex|form|show|reveal|vertex|correspond|parabola</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=l9ft9jpriNA</t>
+    <t>http://youtube.com/watch?v=2ZzuZvz33X0</t>
   </si>
   <si>
     <t>sal|solv|equat|s22s350|factor|express|left|s5s7|find|svalu|factor|equal|zero</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=oQpKtm5TtxU</t>
+    <t>http://youtube.com/watch?v=4F6cFLnAAFc</t>
   </si>
   <si>
     <t>sal|rewrit|r23s32âˆš20r4s5|exponenti|express|radic|express</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=VWAfEbgf1Po</t>
+    <t>http://youtube.com/watch?v=R948Tsyq4vA</t>
   </si>
   <si>
     <t>slope|line|rise|run|learn|calcul|slope|line|graph|find|chang|y|chang|x</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=VMEV__2wW3E</t>
+    <t>http://youtube.com/watch?v=cNlwi6lUCEM</t>
   </si>
   <si>
     <t>sal|solv|system|equat|figur|long|coupl|differ|shelv</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=GEId0GonOZM</t>
+    <t>http://youtube.com/watch?v=PdSzruR5OeE</t>
   </si>
   <si>
     <t>solv|limit|00|infintyinfin|lhopist|rule|tool|need</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=RdYA8ZpqdJE</t>
+    <t>http://youtube.com/watch?v=kGrk6V8tWDY</t>
   </si>
   <si>
     <t>let|deriv|formula|perceiv|frequenc|sound|chang|sourc|move</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=dfoXtodyiIA</t>
+    <t>http://youtube.com/watch?v=eQf_EAYGo-k</t>
   </si>
   <si>
     <t>calcul|mass|oxygen|need|gram|product|form|combust|250|g|glucos</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=2ZzuZvz33X0</t>
+    <t>http://youtube.com/watch?v=frBJEYvyd-8</t>
   </si>
   <si>
     <t>easi|way|think|absolut|valu|distanc|zero|number|line|come|handi|watch|learn</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=4F6cFLnAAFc</t>
+    <t>http://youtube.com/watch?v=E4HAYd0QnRc</t>
   </si>
   <si>
     <t>sal|discuss|common|measur|spread</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=R948Tsyq4vA</t>
+    <t>http://youtube.com/watch?v=iI_2Piwn_og</t>
   </si>
   <si>
     <t>sal|introduc|concept|inequ|contain|absolut|valu|express|solv|bunch|exampl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=cNlwi6lUCEM</t>
+    <t>http://youtube.com/watch?v=tJW_a6JeXD8</t>
   </si>
   <si>
     <t>amplitud|period|frequenc|wavelength|period|wave|calcul|wave|veloc</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=PdSzruR5OeE</t>
+    <t>http://youtube.com/watch?v=c38H6UKt3_I</t>
   </si>
   <si>
     <t>introduct|transvers|longitudin|wave</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=kGrk6V8tWDY</t>
+    <t>http://youtube.com/watch?v=gGXnILbrhsM</t>
   </si>
   <si>
     <t>green|theorem|solv|line|integr|vector|field</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=eQf_EAYGo-k</t>
+    <t>http://youtube.com/watch?v=LpY8Qa3IP1w</t>
   </si>
   <si>
     <t>path|independ|conserv|vector|field|solv|line|integr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=frBJEYvyd-8</t>
+    <t>http://youtube.com/watch?v=I2dbzp0zHuw</t>
   </si>
   <si>
     <t>show|line|integr|close|curv|conserv|vector|field|zero</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=E4HAYd0QnRc</t>
+    <t>http://youtube.com/watch?v=K_fgnCJOI8I</t>
   </si>
   <si>
     <t>show|vector|field|gradient|scalar|field|line|integr|path|independ</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=iI_2Piwn_og</t>
+    <t>http://youtube.com/watch?v=cc8sUv2SuaY</t>
   </si>
   <si>
     <t>overview|nephron|kidney|filter|blood|reabsorb|water|molecul</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=tJW_a6JeXD8</t>
+    <t>http://youtube.com/watch?v=AFF8FXxt5os</t>
   </si>
   <si>
     <t>line|integr|find|work|vector|field|exampl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=c38H6UKt3_I</t>
+    <t>http://youtube.com/watch?v=t3cJYNdQLYg</t>
   </si>
   <si>
     <t>line|integr|find|work|particl|move|vector|field</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=gGXnILbrhsM</t>
+    <t>http://youtube.com/watch?v=uXjQ8yc9Pdg</t>
   </si>
   <si>
     <t>concret|exampl|line|integr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=LpY8Qa3IP1w</t>
+    <t>http://youtube.com/watch?v=_60sKaoRmhU</t>
   </si>
   <si>
     <t>introduct|line|integr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=I2dbzp0zHuw</t>
+    <t>http://youtube.com/watch?v=FXSuEIMrPQk</t>
   </si>
   <si>
     <t>overview|inflammatori|respons</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=K_fgnCJOI8I</t>
+    <t>http://youtube.com/watch?v=xaz5ftvZCyI</t>
   </si>
   <si>
     <t>review|b|cell|cd4|t|cell|cd8|t|cell</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=cc8sUv2SuaY</t>
+    <t>http://youtube.com/watch?v=oqI4skjr6lQ</t>
   </si>
   <si>
     <t>cytotox|t|cell|activ|mhciantigen|complex|proceed|kill|infect|cell</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=AFF8FXxt5os</t>
+    <t>http://youtube.com/watch?v=uwMYpTYsNZM</t>
   </si>
   <si>
     <t>introduct|helper|t|cell|role|activ|b|cell</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=t3cJYNdQLYg</t>
+    <t>http://youtube.com/watch?v=j_kSmmEpvQk</t>
   </si>
   <si>
     <t>profession|antigen|present|cell|present|part|engulf|pathogen|mhc|ii|complex</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=uXjQ8yc9Pdg</t>
+    <t>http://youtube.com/watch?v=Z36dUduOk1Y</t>
   </si>
   <si>
     <t>overview|b|cell|b|lymphocyt|activ|produc|antibodi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=_60sKaoRmhU</t>
+    <t>http://youtube.com/watch?v=rp7T4IItbtM</t>
   </si>
   <si>
     <t>innat|vs|adapt|immun|humor|adapt|immun|vs|cellmedi|adapt|immun</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=FXSuEIMrPQk</t>
+    <t>http://youtube.com/watch?v=O1N2rENXq_Y</t>
   </si>
   <si>
     <t>role|phagocyt|innat|nonspecif|immun|neutrophil|macrophag|dendrit|cell|mhc|ii</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=xaz5ftvZCyI</t>
+    <t>http://youtube.com/watch?v=SauhB2fYQkM</t>
   </si>
   <si>
     <t>role|sarcoplasm|reticulum|control|calcium|ion|concentr|muscl|cell</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=oqI4skjr6lQ</t>
+    <t>http://youtube.com/watch?v=zopoN2i7ALQ</t>
   </si>
   <si>
     <t>myosin|actin|interact|produc|mechan|forc</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=uwMYpTYsNZM</t>
+    <t>http://youtube.com/watch?v=Tbq-KZaXiL4</t>
   </si>
   <si>
     <t>neuron|stimul|inhibit|neuron|chemic|synaps</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=j_kSmmEpvQk</t>
+    <t>http://youtube.com/watch?v=C_H-ONQFjpQ</t>
   </si>
   <si>
     <t>sodium|potassium|pump|maintain|voltag|gradient|cell|neuron|membran</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Z36dUduOk1Y</t>
+    <t>http://youtube.com/watch?v=ob5U8zPbAX4</t>
   </si>
   <si>
     <t>introduct|neuron|anatomi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=rp7T4IItbtM</t>
+    <t>http://youtube.com/watch?v=LWtXthfG9_M</t>
   </si>
   <si>
     <t>hemoglobin|role|circulatori|system</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=O1N2rENXq_Y</t>
+    <t>http://youtube.com/watch?v=SPGRkexI_cs</t>
   </si>
   <si>
     <t>pulmonari|system|includ|lung|larynx|trachea|bronchi|bronchiol|alveoli|thorac|diaphragm</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=SauhB2fYQkM</t>
+    <t>http://youtube.com/watch?v=aubZU0iWtgI</t>
   </si>
   <si>
     <t>learn|diffus|osmosi|concentr|gradient|import|cell</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=zopoN2i7ALQ</t>
+    <t>http://youtube.com/watch?v=slm6D2VEXYs</t>
   </si>
   <si>
     <t>calvin|cycl|lightindepend|dark|reaction|photosythesi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Tbq-KZaXiL4</t>
+    <t>http://youtube.com/watch?v=GR2GA7chA_c</t>
   </si>
   <si>
     <t>overview|lightdepend|reaction|includ|structur|chloroplast|photosystem|atp|synthes</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=C_H-ONQFjpQ</t>
+    <t>http://youtube.com/watch?v=-rsYk4eCKnA</t>
   </si>
   <si>
     <t>overview|photosynthesi|photosynthesi|accomplish|import|lightdepend|lightindepend|reaction|work</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ob5U8zPbAX4</t>
+    <t>http://youtube.com/watch?v=JNm3M9cqWyc</t>
   </si>
   <si>
     <t>introduct|central|limit|theorem|sampl|distribut|mean</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=LWtXthfG9_M</t>
+    <t>http://youtube.com/watch?v=hIgnece9ins</t>
   </si>
   <si>
     <t>sal|sketch|graph|fx3xâ´4xÂ³2|includ|extremum|inflect|point</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=SPGRkexI_cs</t>
+    <t>http://youtube.com/watch?v=MTzTqvzWzm8</t>
   </si>
   <si>
     <t>introduct|divis</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=aubZU0iWtgI</t>
+    <t>http://youtube.com/watch?v=gS6TfWUv97I</t>
   </si>
   <si>
     <t>sal|introduc|lattic|multipl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=slm6D2VEXYs</t>
+    <t>http://youtube.com/watch?v=mfgCcFXUZRk</t>
   </si>
   <si>
     <t>overview|electron|transport|chain</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=GR2GA7chA_c</t>
+    <t>http://youtube.com/watch?v=juM2ROSLWfw</t>
   </si>
   <si>
     <t>overview|kreb|citric|acid|cycl|seri|reaction|take|acetyl|coa|\xa0|produc|carbon|dioxid|nadh|fadh2|atp|gtp</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=-rsYk4eCKnA</t>
+    <t>http://youtube.com/watch?v=FE2jfTXAJHg</t>
   </si>
   <si>
     <t>overview|basic|glycolysi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=JNm3M9cqWyc</t>
+    <t>http://youtube.com/watch?v=_KyyVhlUDNU</t>
   </si>
   <si>
     <t>oxid|reduct|cellular|respir|reconcil|biolog|chemistri|definit|oxid|reduct</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=hIgnece9ins</t>
+    <t>http://youtube.com/watch?v=2f7YwCtHcgk</t>
   </si>
   <si>
     <t>introduct|cellular|respir|includ|glycolysi|kreb|cycl|electron|transport|chain</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=MTzTqvzWzm8</t>
+    <t>http://youtube.com/watch?v=11dNghWC4HI</t>
   </si>
   <si>
     <t>determin|eigenvalu|3x3|matrix</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=gS6TfWUv97I</t>
+    <t>http://youtube.com/watch?v=PiuhTj0zCf4</t>
   </si>
   <si>
     <t>find|transform|matrix|respect|nonstandard|basi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=mfgCcFXUZRk</t>
+    <t>http://youtube.com/watch?v=H9BWRYJNIv4</t>
   </si>
   <si>
     <t>defin|determin|nxn|matric|exampl|4x4|determin</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=juM2ROSLWfw</t>
+    <t>http://youtube.com/watch?v=ANyVpMS3HL4</t>
   </si>
   <si>
     <t>sal|arriv|formal|definit|deriv|consid|limit|slope|secant|line|approach|tangent|line</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=FE2jfTXAJHg</t>
+    <t>http://youtube.com/watch?v=8SAMey9Gl5I</t>
   </si>
   <si>
     <t>summari|thought|video| |discuss|fraction|reserv|bank|subsidi|bank|allow|arbitrag|yield|curv</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=_KyyVhlUDNU</t>
+    <t>http://youtube.com/watch?v=C5Lbjbyr1t4</t>
   </si>
   <si>
     <t>find|\xa0|âˆ«2ln|xx|dx</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=2f7YwCtHcgk</t>
+    <t>http://youtube.com/watch?v=4PCktDZJH8E</t>
   </si>
   <si>
     <t>introduct|linear|transform</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=11dNghWC4HI</t>
+    <t>http://youtube.com/watch?v=JUgrBkPteTg</t>
   </si>
   <si>
     <t>dimens|column|space|rank</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=PiuhTj0zCf4</t>
+    <t>http://youtube.com/watch?v=n4EK92CSuBE</t>
   </si>
   <si>
     <t>exampl|trig|substitut|solv|indefinit|integr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=H9BWRYJNIv4</t>
+    <t>http://youtube.com/watch?v=r2PogGDl8_U</t>
   </si>
   <si>
     <t>proof|cauchyschwarz|inequ</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ANyVpMS3HL4</t>
+    <t>http://youtube.com/watch?v=zntNi3-ybfQ</t>
   </si>
   <si>
     <t>understand|definit|basi|subspac</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8SAMey9Gl5I</t>
+    <t>http://youtube.com/watch?v=pMFv6liWK4M</t>
   </si>
   <si>
     <t>introduct|linear|subspac|rn</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=C5Lbjbyr1t4</t>
+    <t>http://youtube.com/watch?v=Qm_OS-8COwU</t>
   </si>
   <si>
     <t>understand|linear|combin|span|vector</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=4PCktDZJH8E</t>
+    <t>http://youtube.com/watch?v=IW4Reburjpc</t>
   </si>
   <si>
     <t>introduct|convolut</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=JUgrBkPteTg</t>
+    <t>http://youtube.com/watch?v=4qfdCwys2ew</t>
   </si>
   <si>
     <t>introduct|dirac|delta|function</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=n4EK92CSuBE</t>
+    <t>http://youtube.com/watch?v=0h5Jd7sgQWY</t>
   </si>
   <si>
     <t>introduct|virus</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=r2PogGDl8_U</t>
+    <t>http://youtube.com/watch?v=TDoGrbpJJ14</t>
   </si>
   <si>
     <t>introduct|bacteria</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=zntNi3-ybfQ</t>
+    <t>http://youtube.com/watch?v=D5ymMYcLtv0</t>
   </si>
   <si>
     <t>learn|use|punnett|squar|calcul|probabl|differ|phenotyp|includ|work|exampl|dihybrid|cross|independ|assort|incomplet|domin|codomin|multipl|allel</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=pMFv6liWK4M</t>
+    <t>http://youtube.com/watch?v=eEUvRrhmcxM</t>
   </si>
   <si>
     <t>hered|classic|genet|domin|recess|trait|heterozyg|homozyg|genotyp</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Qm_OS-8COwU</t>
+    <t>http://youtube.com/watch?v=-yCIMk1x0Pk</t>
   </si>
   <si>
     <t>overview|earli|develop|zygot|embryo|embryon|somat|stem|cell</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=IW4Reburjpc</t>
+    <t>http://youtube.com/watch?v=RZhL7LDPk8w</t>
   </si>
   <si>
     <t>introduct|cancer|byproduct|broken|dna|replic</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=4qfdCwys2ew</t>
+    <t>http://youtube.com/watch?v=ViAmQivKif0</t>
   </si>
   <si>
     <t>intuit|spontan|driven|enthalpi|entropi|temperatur|introduct|gibb|free|energi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=0h5Jd7sgQWY</t>
+    <t>http://youtube.com/watch?v=chXMpDwjBDk</t>
   </si>
   <si>
     <t>hesss|law|standard|heat|format|determin|enthalpi|chang|reaction</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=TDoGrbpJJ14</t>
+    <t>http://youtube.com/watch?v=PFcGiMLwjeY</t>
   </si>
   <si>
     <t>clarifi|thermodynam|definit|entropi|requir|revers|system</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=D5ymMYcLtv0</t>
+    <t>http://youtube.com/watch?v=fucyI7Ouj2c</t>
   </si>
   <si>
     <t>understand|enthalpi|view|heat|content|constant|pressur|system</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=eEUvRrhmcxM</t>
+    <t>http://youtube.com/watch?v=nh1R-gyY7es</t>
   </si>
   <si>
     <t>clarifi|point|evolut|intellig|design</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=-yCIMk1x0Pk</t>
+    <t>http://youtube.com/watch?v=s9HPNwXd9fk</t>
   </si>
   <si>
     <t>overview|dna|transcript|translat|replic|mitosi|meiosi|\xa0|learn|chromosom|chromatid|chromatin</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=RZhL7LDPk8w</t>
+    <t>http://youtube.com/watch?v=DuArVnT1i-E</t>
   </si>
   <si>
     <t>variat|introduc|speci</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ViAmQivKif0</t>
+    <t>http://youtube.com/watch?v=dR_BFmDMRaI</t>
   </si>
   <si>
     <t>owl|butterfli|gotten|spot|wing</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=chXMpDwjBDk</t>
+    <t>http://youtube.com/watch?v=qxOEz9aPZNY</t>
   </si>
   <si>
     <t>argument|evolut|speak|intellig|design</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=PFcGiMLwjeY</t>
+    <t>http://youtube.com/watch?v=GcjgWov7mTM</t>
   </si>
   <si>
     <t>introduct|group|organ|evolv|natur|select|lead|evolut</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=fucyI7Ouj2c</t>
+    <t>http://youtube.com/watch?v=aKRDvSZ-igA</t>
   </si>
   <si>
     <t>maxwel|demon|thought|experi|defi|2nd|law|thermodynam</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=nh1R-gyY7es</t>
+    <t>http://youtube.com/watch?v=xJf6pHqLzs0</t>
   </si>
   <si>
     <t>introduc|second|law|thermodynam|discuss|entropi|chang|term|heat|microst</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=s9HPNwXd9fk</t>
+    <t>http://youtube.com/watch?v=aAfBSJObd6Y</t>
   </si>
   <si>
     <t>introduct|carnot|cycl|carnot|heat|engin</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=DuArVnT1i-E</t>
+    <t>http://youtube.com/watch?v=qSFY7GKhSRs</t>
   </si>
   <si>
     <t>conceptu|proof|intern|energi|ideal|ga|system|32|pv</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=dR_BFmDMRaI</t>
+    <t>http://youtube.com/watch?v=obeGVTOZyfE</t>
   </si>
   <si>
     <t>system|work|expand</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=qxOEz9aPZNY</t>
+    <t>http://youtube.com/watch?v=aOSlXuDO4UU</t>
   </si>
   <si>
     <t>get|intuit|intern|energi|heat|work|exampl|law|calcul|work</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=GcjgWov7mTM</t>
+    <t>http://youtube.com/watch?v=Xb05CaG7TsQ</t>
   </si>
   <si>
     <t>law|thermodynam|intern|energi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=aKRDvSZ-igA</t>
+    <t>http://youtube.com/watch?v=lKq-10ysDb4</t>
   </si>
   <si>
     <t>theoret|quasistat|andor|revers|process|stay|pretti|equilibrium</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=xJf6pHqLzs0</t>
+    <t>http://youtube.com/watch?v=HTDop6eEsaA</t>
   </si>
   <si>
     <t>introduct|exponenti|decay|exponenti|decay|formula|calcul|k|calcul|mass|carbon14|remain|given|time|calcul|time|take|specif|mass|remain</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=aAfBSJObd6Y</t>
+    <t>http://youtube.com/watch?v=H7nrVDV8ahc</t>
   </si>
   <si>
     <t>show|ntnekt|describ|radioact|substanc|time|t|student|background|calculu|necessari|intro|chemistri|class</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=qSFY7GKhSRs</t>
+    <t>http://youtube.com/watch?v=9REPnibO4IQ</t>
   </si>
   <si>
     <t>carbon|date|reallif|exampl|firstord|reaction|video|explain|\xa0|halflif|context|radioact|decay</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=obeGVTOZyfE</t>
+    <t>http://youtube.com/watch?v=3koOwozY4oc</t>
   </si>
   <si>
     <t>alpha|beta|gamma|decay|positron|emiss</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=aOSlXuDO4UU</t>
+    <t>http://youtube.com/watch?v=BBIGR0RAMtY</t>
   </si>
   <si>
     <t>make|sure|fulli|understand|titrat|curv|compar|initi|ph|ph|equival|point|differ|type</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Xb05CaG7TsQ</t>
+    <t>http://youtube.com/watch?v=4-fEvpVNTlE</t>
   </si>
   <si>
     <t>le|chateli|principl|predict|chang|concentr|stress|reaction|equilibrium</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=lKq-10ysDb4</t>
+    <t>http://youtube.com/watch?v=TsXlTWgyItw</t>
   </si>
   <si>
     <t>ignor|solvent|solid|state|molecul|calcul|equilibrium|constant</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=HTDop6eEsaA</t>
+    <t>http://youtube.com/watch?v=__zy-oOLPug</t>
   </si>
   <si>
     <t>kinet|activ|energi|activ|complex|catalyst</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=H7nrVDV8ahc</t>
+    <t>http://youtube.com/watch?v=z9LxdqYntlU</t>
   </si>
   <si>
     <t>rais|lower|boil|freez|point|solut|ad|solut</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=9REPnibO4IQ</t>
+    <t>http://youtube.com/watch?v=zjIVJh4JLNo</t>
   </si>
   <si>
     <t>solubl|salt|ga|solut|liquid|solvent</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=3koOwozY4oc</t>
+    <t>http://youtube.com/watch?v=3ROWXs3jtQU</t>
   </si>
   <si>
     <t>suspens|colloid|solut|differ|molar|molal</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=BBIGR0RAMtY</t>
+    <t>http://youtube.com/watch?v=hA5jddDYcyg</t>
   </si>
   <si>
     <t>vapor|pressur|volatil|evapor</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=4-fEvpVNTlE</t>
+    <t>http://youtube.com/watch?v=8qfzpJvsp04</t>
   </si>
   <si>
     <t>van|der|waal|forc|london|dispers|forc|dipoledipol|forc|\xa0|hydrogen|bond</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=TsXlTWgyItw</t>
+    <t>http://youtube.com/watch?v=Qp87Z4m8R-w</t>
   </si>
   <si>
     <t>understand|interpret|phase|diagram</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=__zy-oOLPug</t>
+    <t>http://youtube.com/watch?v=pKvo0XWZtjo</t>
   </si>
   <si>
     <t>introduct|state|phase|matter</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=z9LxdqYntlU</t>
+    <t>http://youtube.com/watch?v=69V-60sga3M</t>
   </si>
   <si>
     <t>figur|mass|oxygen|given|p|v|t|need|check|unit|r</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=zjIVJh4JLNo</t>
+    <t>http://youtube.com/watch?v=erjMiErRgSQ</t>
   </si>
   <si>
     <t>figur|number|mole|ga|ideal|ga|equat|pvnrt</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=3ROWXs3jtQU</t>
+    <t>http://youtube.com/watch?v=WScwPIPqZa0</t>
   </si>
   <si>
     <t>intuit|ideal|ga|equat|pvnrt</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=hA5jddDYcyg</t>
+    <t>http://youtube.com/watch?v=rESzyhPOJ7I</t>
   </si>
   <si>
     <t>stoichiometri|problem|find|limit|reagent|calcul|gram|product|form</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8qfzpJvsp04</t>
+    <t>http://youtube.com/watch?v=SjQG3rKSZUQ</t>
   </si>
   <si>
     <t>introduct|stoichiometri|balanc|reaction|find|molar|ratio</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Qp87Z4m8R-w</t>
+    <t>http://youtube.com/watch?v=AsqEkF7hcII</t>
   </si>
   <si>
     <t>introduct|idea|mole|number|vs|anim</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=pKvo0XWZtjo</t>
+    <t>http://youtube.com/watch?v=CGA8sRwqIFg</t>
   </si>
   <si>
     <t>introduct|ionic|coval|polar|coval|metal|bond</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=69V-60sga3M</t>
+    <t>http://youtube.com/watch?v=FmQoSenbtnU</t>
   </si>
   <si>
     <t>electron|configur|relat|orbit|structur|period|tabl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=erjMiErRgSQ</t>
+    <t>http://youtube.com/watch?v=yBrp8uvNAhI</t>
   </si>
   <si>
     <t>introduct|orbit|relat|energi|shell|row|period|period|tabl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=WScwPIPqZa0</t>
+    <t>http://youtube.com/watch?v=1xSQlwWGT8M</t>
   </si>
   <si>
     <t>learn|atom|proton|neutron|electron|element|defin|atom|number|number|proton|nucleu|mass|atom|determin|total|number|proton|neutron</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=rESzyhPOJ7I</t>
+    <t>http://youtube.com/watch?v=Z7C4cz2HkeY</t>
   </si>
   <si>
     <t>incom|statement|revenu|gross|profit|oper|profit|net|incom|roa|roe</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=SjQG3rKSZUQ</t>
+    <t>http://youtube.com/watch?v=S-XKGBesRzk</t>
   </si>
   <si>
     <t>sal|explain|partial|fraction|expans|rewrit|xÂ²2x37xÂ²3x40|sum|1|ration|express|linear|denomin</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=AsqEkF7hcII</t>
+    <t>http://youtube.com/watch?v=hgtMWR3TFnY</t>
   </si>
   <si>
     <t>explor|normal|distribut</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=CGA8sRwqIFg</t>
+    <t>http://youtube.com/watch?v=VpuN8vCQ--M</t>
   </si>
   <si>
     <t>sal|introduc|magic|law|larg|number</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=FmQoSenbtnU</t>
+    <t>http://youtube.com/watch?v=3z-M6sbGIZ0</t>
   </si>
   <si>
     <t>introduct|poisson|process|poisson|distribut</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=yBrp8uvNAhI</t>
+    <t>http://youtube.com/watch?v=SqcxYnNlI3Y</t>
   </si>
   <si>
     <t>expect|valu|binomi|distribut|random|variabl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=1xSQlwWGT8M</t>
+    <t>http://youtube.com/watch?v=Fvi9A_tEmXQ</t>
   </si>
   <si>
     <t>probabl|densiti|function|continu|random|variabl</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Z7C4cz2HkeY</t>
+    <t>http://youtube.com/watch?v=MILF-9GeMDQ</t>
   </si>
   <si>
     <t>analysi|feder|reserv|balanc|sheet|feb|2007</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=S-XKGBesRzk</t>
+    <t>http://youtube.com/watch?v=FxkTSjctXdk</t>
   </si>
   <si>
     <t>discount|rate|window| |lender|resort</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=hgtMWR3TFnY</t>
+    <t>http://youtube.com/watch?v=rs1md3e4aYU</t>
   </si>
   <si>
     <t>differ|bond|stock</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=VpuN8vCQ--M</t>
+    <t>http://youtube.com/watch?v=8OCjwBkMJ_E</t>
   </si>
   <si>
     <t>rais|money|angel|investor| |premoney|postmoney|valuat</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=3z-M6sbGIZ0</t>
+    <t>http://youtube.com/watch?v=HvDqbzu0i0E</t>
   </si>
   <si>
     <t>learn|calcul|standard|deviat|relat|varianc|mean|differ|popul|sampl|standard|deviat</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=SqcxYnNlI3Y</t>
+    <t>http://youtube.com/watch?v=uhxtUt_-GyM</t>
   </si>
   <si>
     <t>introduct|descript|statist|central|tendenc|way|measur|averag|set|median|mean|mode</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Fvi9A_tEmXQ</t>
+    <t>http://youtube.com/watch?v=T9byZBGtGuw</t>
   </si>
   <si>
     <t>pro|con|bank|system| |gold</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=MILF-9GeMDQ</t>
+    <t>http://youtube.com/watch?v=NFDMXwwzyIM</t>
   </si>
   <si>
     <t>get|gold|standard| |short|discuss|mean|wealth</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=FxkTSjctXdk</t>
+    <t>http://youtube.com/watch?v=M-4GWomLbpc</t>
   </si>
   <si>
     <t>introduct|idea|reserv|bank</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=rs1md3e4aYU</t>
+    <t>http://youtube.com/watch?v=8fxilNdEQTo</t>
   </si>
   <si>
     <t>leverag| |good|bad| |leverag|insolv</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8OCjwBkMJ_E</t>
+    <t>http://youtube.com/watch?v=E-HOz8T6tAo</t>
   </si>
   <si>
     <t>introduct|bank|money|valu|potenti|add|societi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=HvDqbzu0i0E</t>
+    <t>http://youtube.com/watch?v=Q7HbtnOyKMg</t>
   </si>
   <si>
     <t>bubbl|destroy|wealth</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=uhxtUt_-GyM</t>
+    <t>http://youtube.com/watch?v=R528WbVdC0I</t>
   </si>
   <si>
     <t>bailout|work</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=T9byZBGtGuw</t>
+    <t>http://youtube.com/watch?v=neAFEvNsiqw</t>
   </si>
   <si>
     <t>system|risk|credit|default|swap|financi|weapon|mass|destruct</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=NFDMXwwzyIM</t>
+    <t>http://youtube.com/watch?v=a1lVOO9Y080</t>
   </si>
   <si>
     <t>introduct|credit|default|swap</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=M-4GWomLbpc</t>
+    <t>http://youtube.com/watch?v=9Wfn-WWV1aY</t>
   </si>
   <si>
     <t>introduct|order|homogen|equat</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8fxilNdEQTo</t>
+    <t>http://youtube.com/watch?v=iEpqcdaJNTQ</t>
   </si>
   <si>
     <t>chain|rule|partial|deriv|proof|intuit</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=E-HOz8T6tAo</t>
+    <t>http://youtube.com/watch?v=vr0sTKbV7lI</t>
   </si>
   <si>
     <t>introduct|tripl|integr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Q7HbtnOyKMg</t>
+    <t>http://youtube.com/watch?v=TdLD2Zh-nUQ</t>
   </si>
   <si>
     <t>figur|volum|zxy2</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=R528WbVdC0I</t>
+    <t>http://youtube.com/watch?v=85zGYB-34jQ</t>
   </si>
   <si>
     <t>introduct|doubl|integr</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=neAFEvNsiqw</t>
+    <t>http://youtube.com/watch?v=E34CftP455k</t>
   </si>
   <si>
     <t>understand|differ|dot|cross|product</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=a1lVOO9Y080</t>
+    <t>http://youtube.com/watch?v=KDHuWxy53uM</t>
   </si>
   <si>
     <t>introduct|vector|dot|product</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=9Wfn-WWV1aY</t>
+    <t>http://youtube.com/watch?v=8Y4JSp5U82I</t>
   </si>
   <si>
     <t>introduct|magnet</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=iEpqcdaJNTQ</t>
+    <t>http://youtube.com/watch?v=bGNMXfaNR5Q</t>
   </si>
   <si>
     <t>old|video|sal|introduc|mean|valu|theorem| |give|intuit|mean</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=vr0sTKbV7lI</t>
+    <t>http://youtube.com/watch?v=mDmRYfma9C0</t>
   </si>
   <si>
     <t>deriv|quadrat|formula|complet|squar</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=TdLD2Zh-nUQ</t>
+    <t>http://youtube.com/watch?v=3o8_EARoMtg</t>
   </si>
   <si>
     <t>introduct|electr|circuit|current|resist</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=85zGYB-34jQ</t>
+    <t>http://youtube.com/watch?v=ESusD8HRLBI</t>
   </si>
   <si>
     <t>introduct|moment</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=E34CftP455k</t>
+    <t>http://youtube.com/watch?v=ngOC4eUQl8Y</t>
   </si>
   <si>
     <t>introduct|capacit|plate|capacitor</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=KDHuWxy53uM</t>
+    <t>http://youtube.com/watch?v=0YOGrTNgGhE</t>
   </si>
   <si>
     <t>think|forc|charg|come|properti|space|properti|call|electr|field</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8Y4JSp5U82I</t>
+    <t>http://youtube.com/watch?v=xF_hJaXUNfE</t>
   </si>
   <si>
     <t>old|video|sal|explain|use|combinatori|formula|n|choos|k|expand|binomi|express</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=bGNMXfaNR5Q</t>
+    <t>http://youtube.com/watch?v=GtaoP0skPWc</t>
   </si>
   <si>
     <t>interest|simpl|versu|compound|interest</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=mDmRYfma9C0</t>
+    <t>http://youtube.com/watch?v=Nk2q-_jkJVs</t>
   </si>
   <si>
     <t>intuit|motion|mass|spring|calculu|near|end</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=3o8_EARoMtg</t>
+    <t>http://youtube.com/watch?v=ZzwuHS9ldbY</t>
   </si>
   <si>
     <t>introduct|hook|law</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ESusD8HRLBI</t>
+    <t>http://youtube.com/watch?v=391txUI76gM</t>
   </si>
   <si>
     <t>littl|bit|graviti</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ngOC4eUQl8Y</t>
-  </si>
-  <si>
-    <t>http://youtube.com/watch?v=0YOGrTNgGhE</t>
+    <t>http://youtube.com/watch?v=8i0j3j16yFk</t>
+  </si>
+  <si>
+    <t>http://youtube.com/watch?v=FaF3v-ezbSk</t>
   </si>
   <si>
     <t>express|vector|scale|sum|unit|vector</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=xF_hJaXUNfE</t>
+    <t>http://youtube.com/watch?v=YL10H_EcB-E</t>
   </si>
   <si>
     <t>math|rent|vs|buy|home|challeng|notion|better|buy</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=GtaoP0skPWc</t>
+    <t>http://youtube.com/watch?v=mxsYHiDVNlk</t>
   </si>
   <si>
     <t>home|purchas|illustr|asset|liabil|owner|equiti</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=Nk2q-_jkJVs</t>
+    <t>http://youtube.com/watch?v=QhuJn8YBtmg</t>
   </si>
   <si>
     <t>introduct|torqu</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ZzwuHS9ldbY</t>
+    <t>http://youtube.com/watch?v=VrflZifKIuw</t>
   </si>
   <si>
     <t>video|sal|give|conceptu|understand|center|mass|mean</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=391txUI76gM</t>
+    <t>http://youtube.com/watch?v=YvacYWgygaA</t>
   </si>
   <si>
     <t>conserv|energi|problem|energi|conserv</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=8i0j3j16yFk</t>
+    <t>http://youtube.com/watch?v=kw_4Loo1HR4</t>
   </si>
   <si>
     <t>law|conserv|energi|potenti|energi|convert|kinet|energi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=FaF3v-ezbSk</t>
+    <t>http://youtube.com/watch?v=2WS1sG9fhOk</t>
   </si>
   <si>
     <t>introduct|work|energi</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=YL10H_EcB-E</t>
+    <t>http://youtube.com/watch?v=CFygKiTB-4A</t>
   </si>
   <si>
     <t>exampl|conserv|momentum|dimens</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=mxsYHiDVNlk</t>
+    <t>http://youtube.com/watch?v=XFhntPxow0U</t>
   </si>
   <si>
     <t>momentum| |simpl|problem|involv|momentum</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=QhuJn8YBtmg</t>
+    <t>http://youtube.com/watch?v=_UrfHFEBIpU</t>
   </si>
   <si>
     <t>introduct|tension|solv|tension|set|wire|weight|hang</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=VrflZifKIuw</t>
+    <t>http://youtube.com/watch?v=15zliAL4llE</t>
   </si>
   <si>
     <t>equat|motion|figur|thing|fall|object</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=YvacYWgygaA</t>
+    <t>http://youtube.com/watch?v=ay8838UZ4nM</t>
   </si>
   <si>
     <t>intuit|deriv|deriv|find|slope|point|fxx2</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=kw_4Loo1HR4</t>
+    <t>http://youtube.com/watch?v=rAof9Ld5sOg</t>
   </si>
   <si>
     <t>find|slope|tangent|line|curv|deriv|introduct|calculu</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=2WS1sG9fhOk</t>
+    <t>http://youtube.com/watch?v=U-k5N1WPk4g</t>
   </si>
   <si>
     <t>sal|cover|differ|kind|function|show|determin|domain</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=CFygKiTB-4A</t>
+    <t>http://youtube.com/watch?v=XjoJ9UF2hqg</t>
   </si>
   <si>
     <t>introduct| |collater|debt|oblig|listen|seri|mortgageback|secur</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=XFhntPxow0U</t>
+    <t>http://youtube.com/watch?v=oosYQHq2hwE</t>
   </si>
   <si>
     <t>introduct|mortgageback|secur</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=_UrfHFEBIpU</t>
+    <t>http://youtube.com/watch?v=VhokQhjl5t0</t>
   </si>
   <si>
     <t>introduct|function</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=15zliAL4llE</t>
+    <t>http://youtube.com/watch?v=IWigvJcCAJ0</t>
   </si>
   <si>
     <t>introduct|quadrat|equat|solv|2nd|degre|polynomi|equat</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=ay8838UZ4nM</t>
+    <t>http://youtube.com/watch?v=w0nqd_HXHPQ</t>
   </si>
   <si>
     <t>learn|unit|convers|metric|system</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=rAof9Ld5sOg</t>
+    <t>http://youtube.com/watch?v=N30tN9158Kc</t>
   </si>
   <si>
     <t>factor|quadrat</t>
   </si>
   <si>
-    <t>http://youtube.com/watch?v=U-k5N1WPk4g</t>
+    <t>http://youtube.com/watch?v=9IUEk9fn2Vs</t>
   </si>
   <si>
     <t>solv|linear|equat|variabl|express|denomin|fraction</t>
@@ -2642,13 +2642,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="A384" sqref="A384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
